--- a/Basic Materials/paper/CLW.xlsx
+++ b/Basic Materials/paper/CLW.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/Basic Materials/basic materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/Basic Materials/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB607D-667B-D54C-8AF1-68B66A85A811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF751C6-4789-9B4D-B874-EDC5B9853B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="2200" windowWidth="27640" windowHeight="25440" xr2:uid="{6F4F8E5C-6D53-F946-BBA4-3EE12BEFA69C}"/>
+    <workbookView xWindow="23560" yWindow="2200" windowWidth="27640" windowHeight="25440" xr2:uid="{6F4F8E5C-6D53-F946-BBA4-3EE12BEFA69C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>P</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>process</t>
-  </si>
-  <si>
-    <t>wood chips broen down into pulp using water &amp; chemicals</t>
   </si>
   <si>
     <t>the sheets are shipped to packaging companies that cut and print them into McDonalds fry cartons, chipotle bowls, starbucks cup holders, frozen food boxes</t>
@@ -425,6 +422,15 @@
   <si>
     <t xml:space="preserve">paperboard shipments </t>
   </si>
+  <si>
+    <t>wood chips broken down into pulp using water &amp; chemicals</t>
+  </si>
+  <si>
+    <t>2/13/25 update</t>
+  </si>
+  <si>
+    <t>stock down 13%after hours</t>
+  </si>
 </sst>
 </file>
 
@@ -432,7 +438,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -532,7 +538,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45744AD-5893-F04A-A521-F9282DEB39DB}">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -988,7 +994,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1004,10 +1010,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>30.96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+        <v>25.25</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1017,17 +1026,20 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="1">
         <f>+G3*G4</f>
-        <v>512.93667312000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>418.33498049999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>Q324</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1052,21 +1064,21 @@
         <v>Q324</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:10">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1">
         <f>+G5-G6+G7</f>
-        <v>1627.8366731200001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>1533.2349805000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:10">
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:10">
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1120,42 +1132,42 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1165,95 +1177,95 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E46" s="15"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="E47" s="15"/>
     </row>
@@ -1265,57 +1277,57 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1340,10 @@
   <dimension ref="B2:AL53"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1403,7 +1415,7 @@
         <v>2016</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:AJ3" si="0">+R3+1</f>
+        <f t="shared" ref="S3:AI3" si="0">+R3+1</f>
         <v>2017</v>
       </c>
       <c r="T3" s="2">
@@ -1473,7 +1485,7 @@
     </row>
     <row r="4" spans="2:35">
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1">
         <v>187944</v>
@@ -1484,7 +1496,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1">
         <v>1350</v>
@@ -1525,8 +1537,7 @@
         <v>393.3</v>
       </c>
       <c r="J11" s="3">
-        <f>+F11</f>
-        <v>753.90000000000009</v>
+        <v>387.1</v>
       </c>
       <c r="S11" s="3">
         <v>1730.4</v>
@@ -1551,43 +1562,43 @@
       </c>
       <c r="Z11" s="3">
         <f>SUM(G11:J11)</f>
-        <v>2229.8000000000002</v>
+        <v>1863</v>
       </c>
       <c r="AA11" s="3">
         <f>+Z11*1.01</f>
-        <v>2252.0980000000004</v>
+        <v>1881.63</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" ref="AB11:AJ11" si="1">+AA11*1.01</f>
-        <v>2274.6189800000006</v>
+        <f t="shared" ref="AB11:AI11" si="1">+AA11*1.01</f>
+        <v>1900.4463000000001</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" si="1"/>
-        <v>2297.3651698000008</v>
+        <v>1919.4507630000001</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" si="1"/>
-        <v>2320.3388214980009</v>
+        <v>1938.6452706300001</v>
       </c>
       <c r="AE11" s="3">
         <f t="shared" si="1"/>
-        <v>2343.5422097129808</v>
+        <v>1958.0317233363</v>
       </c>
       <c r="AF11" s="3">
         <f t="shared" si="1"/>
-        <v>2366.9776318101108</v>
+        <v>1977.6120405696631</v>
       </c>
       <c r="AG11" s="3">
         <f t="shared" si="1"/>
-        <v>2390.6474081282117</v>
+        <v>1997.3881609753598</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="1"/>
-        <v>2414.5538822094941</v>
+        <v>2017.3620425851134</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="1"/>
-        <v>2438.6994210315888</v>
+        <v>2037.5356630109645</v>
       </c>
     </row>
     <row r="12" spans="2:35" s="3" customFormat="1">
@@ -1617,8 +1628,7 @@
         <v>363.2</v>
       </c>
       <c r="J12" s="3">
-        <f>+J$11*(I12/I$11)</f>
-        <v>696.20259344012209</v>
+        <v>372.4</v>
       </c>
       <c r="S12" s="3">
         <v>1521.2</v>
@@ -1643,43 +1653,43 @@
       </c>
       <c r="Z12" s="3">
         <f t="shared" ref="Z12:Z20" si="3">SUM(G12:J12)</f>
-        <v>2031.8025934401221</v>
+        <v>1708</v>
       </c>
       <c r="AA12" s="3">
         <f>+AA$11*(Z12/Z$11)</f>
-        <v>2052.1206193745234</v>
+        <v>1725.08</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ref="AB12:AI14" si="4">+AB$11*(AA12/AA$11)</f>
-        <v>2072.6418255682688</v>
+        <v>1742.3308</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="4"/>
-        <v>2093.3682438239516</v>
+        <v>1759.7541080000001</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" si="4"/>
-        <v>2114.3019262621915</v>
+        <v>1777.3516490800002</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" si="4"/>
-        <v>2135.4449455248132</v>
+        <v>1795.1251655708002</v>
       </c>
       <c r="AF12" s="3">
         <f t="shared" si="4"/>
-        <v>2156.7993949800616</v>
+        <v>1813.0764172265083</v>
       </c>
       <c r="AG12" s="3">
         <f t="shared" si="4"/>
-        <v>2178.367388929862</v>
+        <v>1831.2071813987734</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
-        <v>2200.1510628191609</v>
+        <v>1849.5192532127612</v>
       </c>
       <c r="AI12" s="3">
         <f t="shared" si="4"/>
-        <v>2222.1525734473526</v>
+        <v>1868.0144457448887</v>
       </c>
     </row>
     <row r="13" spans="2:35" s="3" customFormat="1">
@@ -1709,8 +1719,7 @@
         <v>31.6</v>
       </c>
       <c r="J13" s="3">
-        <f>+J$11*(I13/I$11)</f>
-        <v>60.572692601067892</v>
+        <v>26.7</v>
       </c>
       <c r="S13" s="3">
         <v>121.2</v>
@@ -1735,43 +1744,43 @@
       </c>
       <c r="Z13" s="3">
         <f t="shared" si="3"/>
-        <v>166.37269260106791</v>
+        <v>132.5</v>
       </c>
       <c r="AA13" s="3">
         <f>+AA$11*(Z13/Z$11)</f>
-        <v>168.03641952707864</v>
+        <v>133.82499999999999</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="4"/>
-        <v>169.71678372234942</v>
+        <v>135.16325000000001</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="4"/>
-        <v>171.41395155957292</v>
+        <v>136.5148825</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" si="4"/>
-        <v>173.12809107516867</v>
+        <v>137.880031325</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" si="4"/>
-        <v>174.85937198592035</v>
+        <v>139.25883163825</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" si="4"/>
-        <v>176.60796570577955</v>
+        <v>140.6514199546325</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" si="4"/>
-        <v>178.37404536283734</v>
+        <v>142.05793415417884</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>180.15778581646575</v>
+        <v>143.47851349572062</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="4"/>
-        <v>181.95936367463037</v>
+        <v>144.91329863067782</v>
       </c>
     </row>
     <row r="14" spans="2:35" s="3" customFormat="1">
@@ -1801,8 +1810,7 @@
         <v>-0.3</v>
       </c>
       <c r="J14" s="3">
-        <f>+J$11*(I14/I$11)</f>
-        <v>-0.57505720823798634</v>
+        <v>3.7</v>
       </c>
       <c r="S14" s="3">
         <v>16.8</v>
@@ -1827,43 +1835,43 @@
       </c>
       <c r="Z14" s="3">
         <f t="shared" si="3"/>
-        <v>24.024942791762012</v>
+        <v>28.299999999999997</v>
       </c>
       <c r="AA14" s="3">
         <f>+AA$11*(Z14/Z$11)</f>
-        <v>24.265192219679633</v>
+        <v>28.582999999999998</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" si="4"/>
-        <v>24.507844141876433</v>
+        <v>28.868829999999999</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" si="4"/>
-        <v>24.752922583295199</v>
+        <v>29.157518299999996</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" si="4"/>
-        <v>25.000451809128151</v>
+        <v>29.449093482999995</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" si="4"/>
-        <v>25.250456327219432</v>
+        <v>29.743584417829993</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" si="4"/>
-        <v>25.502960890491629</v>
+        <v>30.041020262008296</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" si="4"/>
-        <v>25.757990499396545</v>
+        <v>30.341430464628381</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>26.015570404390512</v>
+        <v>30.644844769274663</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="4"/>
-        <v>26.275726108434416</v>
+        <v>30.951293216967411</v>
       </c>
     </row>
     <row r="15" spans="2:35" s="3" customFormat="1">
@@ -1900,7 +1908,7 @@
       </c>
       <c r="J15" s="3">
         <f>+J11-SUM(J12:J14)</f>
-        <v>-2.3002288329518024</v>
+        <v>-15.699999999999932</v>
       </c>
       <c r="S15" s="3">
         <f t="shared" ref="S15:U15" si="5">+S11-SUM(S12:S14)</f>
@@ -1932,43 +1940,43 @@
       </c>
       <c r="Z15" s="3">
         <f t="shared" si="3"/>
-        <v>7.5997711670482317</v>
+        <v>-5.7999999999998977</v>
       </c>
       <c r="AA15" s="3">
         <f>+AA11-SUM(AA12:AA14)</f>
-        <v>7.6757688787188272</v>
+        <v>-5.8579999999999472</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ref="AB15:AI15" si="6">+AB11-SUM(AB12:AB14)</f>
-        <v>7.7525265675062656</v>
+        <v>-5.9165799999998399</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" si="6"/>
-        <v>7.8300518331811872</v>
+        <v>-5.9757458000001407</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" si="6"/>
-        <v>7.9083523515123488</v>
+        <v>-6.0355032580000625</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="6"/>
-        <v>7.987435875027586</v>
+        <v>-6.0958582905802814</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" si="6"/>
-        <v>8.0673102337782439</v>
+        <v>-6.1568168734859228</v>
       </c>
       <c r="AG15" s="3">
         <f t="shared" si="6"/>
-        <v>8.1479833361158853</v>
+        <v>-6.2183850422206888</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="6"/>
-        <v>8.2294631694771851</v>
+        <v>-6.2805688926430321</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="6"/>
-        <v>8.3117578011715523</v>
+        <v>-6.3433745815693783</v>
       </c>
     </row>
     <row r="16" spans="2:35" s="3" customFormat="1">
@@ -1998,8 +2006,7 @@
         <v>-13.1</v>
       </c>
       <c r="J16" s="3">
-        <f>+J$15*(I16/I$15)</f>
-        <v>-25.110831426390746</v>
+        <v>-5.3</v>
       </c>
       <c r="S16" s="3">
         <v>-30.7</v>
@@ -2024,43 +2031,43 @@
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="3"/>
-        <v>-60.710831426390747</v>
+        <v>-40.9</v>
       </c>
       <c r="AA16" s="3">
         <f>+AA15*(Z16/Z15)</f>
-        <v>-61.317939740655561</v>
+        <v>-41.30900000000036</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ref="AB16:AI16" si="7">+AB15*(AA16/AA15)</f>
-        <v>-61.931119138064112</v>
+        <v>-41.722089999999611</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="7"/>
-        <v>-62.550430329443628</v>
+        <v>-42.139310900001739</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" si="7"/>
-        <v>-63.175934632732869</v>
+        <v>-42.560704009001199</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="7"/>
-        <v>-63.807693979061106</v>
+        <v>-42.986311049092748</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="7"/>
-        <v>-64.445770918854762</v>
+        <v>-43.416174159582539</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" si="7"/>
-        <v>-65.090228628042183</v>
+        <v>-43.850335901177708</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="7"/>
-        <v>-65.741130914323733</v>
+        <v>-44.288839260190443</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="7"/>
-        <v>-66.398542223463735</v>
+        <v>-44.731727652791754</v>
       </c>
     </row>
     <row r="17" spans="2:38" s="3" customFormat="1">
@@ -2090,8 +2097,7 @@
         <v>0.3</v>
       </c>
       <c r="J17" s="3">
-        <f>+J$15*(I17/I$15)</f>
-        <v>0.57505720823795603</v>
+        <v>0.7</v>
       </c>
       <c r="S17" s="3">
         <v>-4.9000000000000004</v>
@@ -2116,43 +2122,43 @@
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="3"/>
-        <v>1.4750572082379558</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="AA17" s="3">
         <f>+AA15*(Z17/Z15)</f>
-        <v>1.4898077803203575</v>
+        <v>1.6160000000000136</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ref="AB17:AI17" si="8">+AB15*(AA17/AA15)</f>
-        <v>1.5047058581236097</v>
+        <v>1.6321599999999843</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" si="8"/>
-        <v>1.5197529167048185</v>
+        <v>1.6484816000000677</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" si="8"/>
-        <v>1.5349504458717405</v>
+        <v>1.6649664160000464</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="8"/>
-        <v>1.55029995033048</v>
+        <v>1.681616080160107</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" si="8"/>
-        <v>1.5658029498338588</v>
+        <v>1.6984322409616637</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" si="8"/>
-        <v>1.5814609793321701</v>
+        <v>1.7154165633712546</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="8"/>
-        <v>1.5972755891255193</v>
+        <v>1.7325707290050048</v>
       </c>
       <c r="AI17" s="3">
         <f t="shared" si="8"/>
-        <v>1.6132483450166959</v>
+        <v>1.7498964362950316</v>
       </c>
     </row>
     <row r="18" spans="2:38" s="3" customFormat="1">
@@ -2189,7 +2195,7 @@
       </c>
       <c r="J18" s="3">
         <f>+J15+SUM(J16:J17)</f>
-        <v>-26.836003051104591</v>
+        <v>-20.299999999999933</v>
       </c>
       <c r="S18" s="3">
         <f t="shared" ref="S18:U18" si="9">+S15+SUM(S16:S17)</f>
@@ -2221,43 +2227,43 @@
       </c>
       <c r="Z18" s="3">
         <f t="shared" si="3"/>
-        <v>-51.636003051104559</v>
+        <v>-45.099999999999902</v>
       </c>
       <c r="AA18" s="3">
         <f>+AA15+SUM(AA16:AA17)</f>
-        <v>-52.152363081616379</v>
+        <v>-45.551000000000293</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ref="AB18:AI18" si="10">+AB15+SUM(AB16:AB17)</f>
-        <v>-52.673886712434239</v>
+        <v>-46.006509999999466</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="10"/>
-        <v>-53.200625579557624</v>
+        <v>-46.466575100001812</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" si="10"/>
-        <v>-53.732631835348776</v>
+        <v>-46.931240851001213</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" si="10"/>
-        <v>-54.269958153703044</v>
+        <v>-47.400553259512925</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" si="10"/>
-        <v>-54.812657735242659</v>
+        <v>-47.874558792106797</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" si="10"/>
-        <v>-55.360784312594127</v>
+        <v>-48.35330438002714</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="10"/>
-        <v>-55.914392155721032</v>
+        <v>-48.83683742382847</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="10"/>
-        <v>-56.473536077275483</v>
+        <v>-49.325205798066101</v>
       </c>
     </row>
     <row r="19" spans="2:38" s="3" customFormat="1">
@@ -2287,8 +2293,7 @@
         <v>-3.3</v>
       </c>
       <c r="J19" s="3">
-        <f>+J18*(I19/I18)</f>
-        <v>-6.325629290617516</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="S19" s="3">
         <v>10.3</v>
@@ -2313,43 +2318,43 @@
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="3"/>
-        <v>-12.025629290617516</v>
+        <v>-15.399999999999999</v>
       </c>
       <c r="AA19" s="3">
         <f>+AA18*(Z19/Z18)</f>
-        <v>-12.145885583523873</v>
+        <v>-15.554000000000132</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ref="AB19:AI19" si="11">+AB18*(AA19/AA18)</f>
-        <v>-12.267344439359507</v>
+        <v>-15.70953999999985</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="11"/>
-        <v>-12.390017883752879</v>
+        <v>-15.86663540000065</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="11"/>
-        <v>-12.513918062589378</v>
+        <v>-16.025301754000449</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="11"/>
-        <v>-12.639057243215452</v>
+        <v>-16.185554771541035</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" si="11"/>
-        <v>-12.76544781564821</v>
+        <v>-16.347410319256014</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="11"/>
-        <v>-12.893102293804468</v>
+        <v>-16.510884422448324</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="11"/>
-        <v>-13.022033316742737</v>
+        <v>-16.675993266673171</v>
       </c>
       <c r="AI19" s="3">
         <f t="shared" si="11"/>
-        <v>-13.152253649909522</v>
+        <v>-16.842753199339679</v>
       </c>
     </row>
     <row r="20" spans="2:38" s="3" customFormat="1">
@@ -2386,7 +2391,7 @@
       </c>
       <c r="J20" s="3">
         <f>+J18-J19</f>
-        <v>-20.510373760487074</v>
+        <v>-10.599999999999934</v>
       </c>
       <c r="S20" s="3">
         <f t="shared" ref="S20:U20" si="12">+S18-S19</f>
@@ -2418,43 +2423,43 @@
       </c>
       <c r="Z20" s="3">
         <f t="shared" si="3"/>
-        <v>-39.610373760487043</v>
+        <v>-29.699999999999903</v>
       </c>
       <c r="AA20" s="3">
         <f>+AA18-AA19</f>
-        <v>-40.006477498092508</v>
+        <v>-29.997000000000163</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ref="AB20:AI20" si="13">+AB18-AB19</f>
-        <v>-40.406542273074734</v>
+        <v>-30.296969999999618</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" si="13"/>
-        <v>-40.810607695804748</v>
+        <v>-30.599939700001162</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" si="13"/>
-        <v>-41.218713772759401</v>
+        <v>-30.905939097000765</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" si="13"/>
-        <v>-41.63090091048759</v>
+        <v>-31.21499848797189</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" si="13"/>
-        <v>-42.047209919594451</v>
+        <v>-31.527148472850783</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" si="13"/>
-        <v>-42.46768201878966</v>
+        <v>-31.842419957578816</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="13"/>
-        <v>-42.892358838978296</v>
+        <v>-32.160844157155296</v>
       </c>
       <c r="AI20" s="3">
         <f t="shared" si="13"/>
-        <v>-43.321282427365958</v>
+        <v>-32.482452598726425</v>
       </c>
     </row>
     <row r="22" spans="2:38" s="5" customFormat="1">
@@ -2475,278 +2480,286 @@
       </c>
       <c r="J22" s="5">
         <f>+J11/F11-1</f>
-        <v>0</v>
+        <v>-0.48653667595171779</v>
       </c>
       <c r="T22" s="5">
-        <f>+T11/S11-1</f>
+        <f t="shared" ref="T22:Z22" si="14">+T11/S11-1</f>
         <v>-3.582986592695403E-3</v>
       </c>
       <c r="U22" s="5">
-        <f>+U11/T11-1</f>
+        <f t="shared" si="14"/>
         <v>2.1633221204036657E-2</v>
       </c>
       <c r="V22" s="5">
-        <f>+V11/U11-1</f>
+        <f t="shared" si="14"/>
         <v>6.0800454158387751E-2</v>
       </c>
       <c r="W22" s="5">
-        <f>+W11/V11-1</f>
+        <f t="shared" si="14"/>
         <v>-5.1375361233008676E-2</v>
       </c>
       <c r="X22" s="5">
-        <f>+X11/W11-1</f>
+        <f t="shared" si="14"/>
         <v>0.17347399300462607</v>
       </c>
       <c r="Y22" s="5">
-        <f>+Y11/X11-1</f>
+        <f t="shared" si="14"/>
         <v>1.2980145185328418E-3</v>
       </c>
       <c r="Z22" s="5">
-        <f>+Z11/Y11-1</f>
-        <v>7.0578067985404225E-2</v>
+        <f t="shared" si="14"/>
+        <v>-0.10553101594008074</v>
       </c>
       <c r="AA22" s="5">
-        <f t="shared" ref="AA22:AI22" si="14">+AA11/Z11-1</f>
+        <f t="shared" ref="AA22:AI22" si="15">+AA11/Z11-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AD22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AI22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="23" spans="2:38" s="4" customFormat="1">
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4">
         <f>+(C11-C12) / C11</f>
         <v>0.14636467453368859</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" ref="D23:I23" si="15">+(D11-D12) / D11</f>
+        <f t="shared" ref="D23:I23" si="16">+(D11-D12) / D11</f>
         <v>0.16374380480365999</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.18142703477949074</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15572357076535359</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15034260378879477</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.0709413369713548E-2</v>
       </c>
       <c r="I23" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.6531909483854618E-2</v>
       </c>
+      <c r="J23" s="17">
+        <f t="shared" ref="J23" si="17">+(J11-J12) / J11</f>
+        <v>3.797468354430391E-2</v>
+      </c>
       <c r="S23" s="4">
-        <f t="shared" ref="S23:Y23" si="16">+(S11-S12) / S11</f>
+        <f t="shared" ref="S23:Y23" si="18">+(S11-S12) / S11</f>
         <v>0.12089690245030053</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.10874608514093492</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.3386318478569402E-2</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15744407577865774</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.10301252397608029</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12340752848420741</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15882465911273294</v>
       </c>
       <c r="Z23" s="4">
-        <f t="shared" ref="Z23:AI23" si="17">+(Z11-Z12) / Z11</f>
-        <v>8.8796038460793814E-2</v>
+        <f t="shared" ref="Z23:AI23" si="19">+(Z11-Z12) / Z11</f>
+        <v>8.3199141170155658E-2</v>
       </c>
       <c r="AA23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793897E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155755E-2</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793897E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155713E-2</v>
       </c>
       <c r="AC23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793897E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155644E-2</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793786E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155602E-2</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793841E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155602E-2</v>
       </c>
       <c r="AF23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793772E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155574E-2</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.87960384607938E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155588E-2</v>
       </c>
       <c r="AH23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.87960384607938E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155533E-2</v>
       </c>
       <c r="AI23" s="4">
-        <f t="shared" si="17"/>
-        <v>8.8796038460793689E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3199141170155602E-2</v>
       </c>
     </row>
     <row r="24" spans="2:38" s="4" customFormat="1">
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4">
         <f>+C13/C11</f>
         <v>6.8519223448800917E-2</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" ref="D24:I24" si="18">+D13/D11</f>
+        <f t="shared" ref="D24:I24" si="20">+D13/D11</f>
         <v>7.4532977506671746E-2</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.10147006095374687</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.9556970420480186E-2</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.2954453849254336E-2</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.4802182810368356E-2</v>
       </c>
       <c r="I24" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.0345792016272566E-2</v>
       </c>
+      <c r="J24" s="17">
+        <f t="shared" ref="J24" si="21">+J13/J11</f>
+        <v>6.8974425213123219E-2</v>
+      </c>
       <c r="S24" s="4">
-        <f t="shared" ref="S24:Y24" si="19">+S13/S11</f>
+        <f t="shared" ref="S24:Y24" si="22">+S13/S11</f>
         <v>7.004160887656033E-2</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.2521749217028189E-2</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.4036332671019019E-2</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.5289521566948519E-2</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.3691752228365123E-2</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.3939233690687949E-2</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7.1202227770309198E-2</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" ref="Z24:AI24" si="20">+Z13/Z11</f>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" ref="Z24:AI24" si="23">+Z13/Z11</f>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AB24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AC24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AD24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AF24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AH24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
       <c r="AI24" s="4">
-        <f t="shared" si="20"/>
-        <v>7.4613280384369859E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.1121846484165321E-2</v>
       </c>
     </row>
     <row r="28" spans="2:38">
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1">
         <v>42</v>
@@ -2755,7 +2768,7 @@
         <v>35.5</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL28" s="16">
         <v>-0.01</v>
@@ -2763,7 +2776,7 @@
     </row>
     <row r="29" spans="2:38">
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1">
         <v>96.1</v>
@@ -2772,7 +2785,7 @@
         <v>172.7</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL29" s="16">
         <v>0.08</v>
@@ -2780,7 +2793,7 @@
     </row>
     <row r="30" spans="2:38">
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1">
         <v>161.19999999999999</v>
@@ -2791,7 +2804,7 @@
     </row>
     <row r="31" spans="2:38">
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1">
         <v>17.399999999999999</v>
@@ -2802,7 +2815,7 @@
     </row>
     <row r="32" spans="2:38">
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1">
         <v>247.5</v>
@@ -2813,7 +2826,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1">
         <v>360.7</v>
@@ -2824,7 +2837,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1">
         <v>41.5</v>
@@ -2835,7 +2848,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1">
         <v>47.6</v>
@@ -2846,7 +2859,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="1">
         <v>657.9</v>
@@ -2857,7 +2870,7 @@
     </row>
     <row r="37" spans="2:9" s="7" customFormat="1">
       <c r="B37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="7">
         <f>+SUM(F28:F36)</f>
@@ -2870,7 +2883,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2881,7 +2894,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" s="1">
         <v>195.5</v>
@@ -2892,7 +2905,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1">
         <v>90.5</v>
@@ -2903,7 +2916,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1">
         <v>439.9</v>
@@ -2914,7 +2927,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" s="1">
         <v>54.5</v>
@@ -2925,7 +2938,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1">
         <v>84.6</v>
@@ -2936,7 +2949,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1">
         <v>138.1</v>
@@ -2947,7 +2960,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="1">
         <v>668.8</v>
@@ -2958,7 +2971,7 @@
     </row>
     <row r="47" spans="2:9" s="7" customFormat="1">
       <c r="B47" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="7">
         <f>+SUM(F39:F46)</f>
@@ -2971,7 +2984,7 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="1">
         <f>125-SUM(C51:D51)</f>
@@ -2984,7 +2997,7 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1">
         <f>+-48.5-SUM(C52:D52)</f>
@@ -2997,7 +3010,7 @@
     </row>
     <row r="53" spans="2:9" s="7" customFormat="1">
       <c r="B53" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" s="7">
         <f>+SUM(E51:E52)</f>
